--- a/Exp1_Rat2_4days_USVs.xlsx
+++ b/Exp1_Rat2_4days_USVs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\OneDrive\Desktop\hold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CC4FEE-F06C-4082-9800-2BFCEB157139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A733FD6-0EF8-4512-B2FA-6D95E7C3079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="2070" windowWidth="15705" windowHeight="14685" xr2:uid="{ECA51099-8B5C-4F7E-BA58-2766A7BA72CD}"/>
+    <workbookView xWindow="3120" yWindow="915" windowWidth="15705" windowHeight="14685" xr2:uid="{ECA51099-8B5C-4F7E-BA58-2766A7BA72CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Begin Time (s)</t>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
   </si>
 </sst>
 </file>
@@ -414,7 +423,7 @@
   <dimension ref="A1:D1378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
